--- a/Analytics/B1/Goalmins_b1.xlsx
+++ b/Analytics/B1/Goalmins_b1.xlsx
@@ -70,52 +70,52 @@
     <t>16</t>
   </si>
   <si>
+    <t>Mechelen</t>
+  </si>
+  <si>
+    <t>Antwerp</t>
+  </si>
+  <si>
+    <t>Genk</t>
+  </si>
+  <si>
+    <t>Westerlo</t>
+  </si>
+  <si>
+    <t>Dender</t>
+  </si>
+  <si>
+    <t>Cercle Brugge</t>
+  </si>
+  <si>
+    <t>Club Brugge</t>
+  </si>
+  <si>
+    <t>St Truiden</t>
+  </si>
+  <si>
+    <t>Anderlecht</t>
+  </si>
+  <si>
+    <t>Beerschot VA</t>
+  </si>
+  <si>
     <t>Gent</t>
   </si>
   <si>
-    <t>Club Brugge</t>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Oud-Heverlee Leuven</t>
   </si>
   <si>
     <t>St. Gilloise</t>
   </si>
   <si>
-    <t>Mechelen</t>
-  </si>
-  <si>
-    <t>Antwerp</t>
-  </si>
-  <si>
-    <t>Westerlo</t>
-  </si>
-  <si>
-    <t>Genk</t>
+    <t>Kortrijk</t>
   </si>
   <si>
     <t>Charleroi</t>
-  </si>
-  <si>
-    <t>Cercle Brugge</t>
-  </si>
-  <si>
-    <t>St Truiden</t>
-  </si>
-  <si>
-    <t>Anderlecht</t>
-  </si>
-  <si>
-    <t>Oud-Heverlee Leuven</t>
-  </si>
-  <si>
-    <t>Kortrijk</t>
-  </si>
-  <si>
-    <t>RWD Molenbeek</t>
-  </si>
-  <si>
-    <t>Eupen</t>
-  </si>
-  <si>
-    <t>Standard</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -192,7 +192,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>3411.0</v>
+        <v>1519.0</v>
       </c>
     </row>
     <row r="3">
@@ -203,7 +203,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>3367.0</v>
+        <v>1303.0</v>
       </c>
     </row>
     <row r="4">
@@ -214,7 +214,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>3323.0</v>
+        <v>1185.0</v>
       </c>
     </row>
     <row r="5">
@@ -225,7 +225,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>3310.0</v>
+        <v>1100.0</v>
       </c>
     </row>
     <row r="6">
@@ -236,7 +236,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>3173.0</v>
+        <v>966.0</v>
       </c>
     </row>
     <row r="7">
@@ -247,7 +247,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>3055.0</v>
+        <v>951.0</v>
       </c>
     </row>
     <row r="8">
@@ -258,7 +258,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>2940.0</v>
+        <v>914.0</v>
       </c>
     </row>
     <row r="9">
@@ -269,7 +269,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>2877.0</v>
+        <v>846.0</v>
       </c>
     </row>
     <row r="10">
@@ -280,7 +280,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>2807.0</v>
+        <v>795.0</v>
       </c>
     </row>
     <row r="11">
@@ -291,7 +291,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>2771.0</v>
+        <v>714.0</v>
       </c>
     </row>
     <row r="12">
@@ -302,7 +302,7 @@
         <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>2761.0</v>
+        <v>704.0</v>
       </c>
     </row>
     <row r="13">
@@ -313,7 +313,7 @@
         <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>2570.0</v>
+        <v>683.0</v>
       </c>
     </row>
     <row r="14">
@@ -324,7 +324,7 @@
         <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>2463.0</v>
+        <v>630.0</v>
       </c>
     </row>
     <row r="15">
@@ -335,7 +335,7 @@
         <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>2427.0</v>
+        <v>596.0</v>
       </c>
     </row>
     <row r="16">
@@ -346,7 +346,7 @@
         <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>2423.0</v>
+        <v>478.0</v>
       </c>
     </row>
     <row r="17">
@@ -357,7 +357,7 @@
         <v>33</v>
       </c>
       <c r="C17" t="n">
-        <v>1821.0</v>
+        <v>450.0</v>
       </c>
     </row>
   </sheetData>
@@ -387,10 +387,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
-        <v>3929.0</v>
+        <v>1102.0</v>
       </c>
     </row>
     <row r="3">
@@ -398,10 +398,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>3416.0</v>
+        <v>1078.0</v>
       </c>
     </row>
     <row r="4">
@@ -409,10 +409,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>3355.0</v>
+        <v>1072.0</v>
       </c>
     </row>
     <row r="5">
@@ -420,10 +420,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>3341.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="6">
@@ -431,10 +431,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>3089.0</v>
+        <v>968.0</v>
       </c>
     </row>
     <row r="7">
@@ -442,10 +442,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>2949.0</v>
+        <v>936.0</v>
       </c>
     </row>
     <row r="8">
@@ -453,10 +453,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>2944.0</v>
+        <v>925.0</v>
       </c>
     </row>
     <row r="9">
@@ -464,10 +464,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>2936.0</v>
+        <v>919.0</v>
       </c>
     </row>
     <row r="10">
@@ -475,10 +475,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>2874.0</v>
+        <v>841.0</v>
       </c>
     </row>
     <row r="11">
@@ -486,10 +486,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>2816.0</v>
+        <v>788.0</v>
       </c>
     </row>
     <row r="12">
@@ -497,10 +497,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>2640.0</v>
+        <v>779.0</v>
       </c>
     </row>
     <row r="13">
@@ -508,10 +508,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>2498.0</v>
+        <v>743.0</v>
       </c>
     </row>
     <row r="14">
@@ -519,10 +519,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>2339.0</v>
+        <v>729.0</v>
       </c>
     </row>
     <row r="15">
@@ -530,10 +530,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>2200.0</v>
+        <v>676.0</v>
       </c>
     </row>
     <row r="16">
@@ -541,10 +541,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" t="n">
-        <v>2132.0</v>
+        <v>671.0</v>
       </c>
     </row>
     <row r="17">
@@ -552,10 +552,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C17" t="n">
-        <v>2041.0</v>
+        <v>607.0</v>
       </c>
     </row>
   </sheetData>
@@ -588,13 +588,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>6456.0</v>
+        <v>2438.0</v>
       </c>
       <c r="D2" t="n">
-        <v>215.2</v>
+        <v>81.26666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -602,13 +602,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>6410.0</v>
+        <v>2202.0</v>
       </c>
       <c r="D3" t="n">
-        <v>213.66666666666666</v>
+        <v>73.4</v>
       </c>
     </row>
     <row r="4">
@@ -616,13 +616,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>6355.0</v>
+        <v>2153.0</v>
       </c>
       <c r="D4" t="n">
-        <v>211.83333333333334</v>
+        <v>71.76666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -630,13 +630,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>6259.0</v>
+        <v>1918.0</v>
       </c>
       <c r="D5" t="n">
-        <v>208.63333333333333</v>
+        <v>63.93333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -644,13 +644,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>6126.0</v>
+        <v>1910.0</v>
       </c>
       <c r="D6" t="n">
-        <v>204.2</v>
+        <v>63.666666666666664</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>6112.0</v>
+        <v>1850.0</v>
       </c>
       <c r="D7" t="n">
-        <v>203.73333333333332</v>
+        <v>61.666666666666664</v>
       </c>
     </row>
     <row r="8">
@@ -672,13 +672,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>5843.0</v>
+        <v>1807.0</v>
       </c>
       <c r="D8" t="n">
-        <v>194.76666666666668</v>
+        <v>60.233333333333334</v>
       </c>
     </row>
     <row r="9">
@@ -686,13 +686,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>5814.0</v>
+        <v>1792.0</v>
       </c>
       <c r="D9" t="n">
-        <v>193.8</v>
+        <v>59.733333333333334</v>
       </c>
     </row>
     <row r="10">
@@ -700,13 +700,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>5813.0</v>
+        <v>1739.0</v>
       </c>
       <c r="D10" t="n">
-        <v>193.76666666666668</v>
+        <v>57.96666666666667</v>
       </c>
     </row>
     <row r="11">
@@ -714,13 +714,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>5750.0</v>
+        <v>1538.0</v>
       </c>
       <c r="D11" t="n">
-        <v>191.66666666666666</v>
+        <v>51.266666666666666</v>
       </c>
     </row>
     <row r="12">
@@ -731,10 +731,10 @@
         <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>5710.0</v>
+        <v>1483.0</v>
       </c>
       <c r="D12" t="n">
-        <v>190.33333333333334</v>
+        <v>49.43333333333333</v>
       </c>
     </row>
     <row r="13">
@@ -742,13 +742,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>5068.0</v>
+        <v>1450.0</v>
       </c>
       <c r="D13" t="n">
-        <v>168.93333333333334</v>
+        <v>48.333333333333336</v>
       </c>
     </row>
     <row r="14">
@@ -756,13 +756,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>5007.0</v>
+        <v>1403.0</v>
       </c>
       <c r="D14" t="n">
-        <v>166.9</v>
+        <v>46.766666666666666</v>
       </c>
     </row>
     <row r="15">
@@ -770,13 +770,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>4918.0</v>
+        <v>1359.0</v>
       </c>
       <c r="D15" t="n">
-        <v>163.93333333333334</v>
+        <v>45.3</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C16" t="n">
-        <v>4762.0</v>
+        <v>1354.0</v>
       </c>
       <c r="D16" t="n">
-        <v>158.73333333333332</v>
+        <v>45.13333333333333</v>
       </c>
     </row>
     <row r="17">
@@ -798,13 +798,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" t="n">
-        <v>4595.0</v>
+        <v>1272.0</v>
       </c>
       <c r="D17" t="n">
-        <v>153.16666666666666</v>
+        <v>42.4</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/B1/Goalmins_b1.xlsx
+++ b/Analytics/B1/Goalmins_b1.xlsx
@@ -73,46 +73,46 @@
     <t>Mechelen</t>
   </si>
   <si>
+    <t>Club Brugge</t>
+  </si>
+  <si>
+    <t>Genk</t>
+  </si>
+  <si>
     <t>Antwerp</t>
   </si>
   <si>
-    <t>Genk</t>
-  </si>
-  <si>
     <t>Westerlo</t>
   </si>
   <si>
+    <t>Cercle Brugge</t>
+  </si>
+  <si>
+    <t>St Truiden</t>
+  </si>
+  <si>
+    <t>Beerschot VA</t>
+  </si>
+  <si>
+    <t>Anderlecht</t>
+  </si>
+  <si>
+    <t>Gent</t>
+  </si>
+  <si>
+    <t>St. Gilloise</t>
+  </si>
+  <si>
     <t>Dender</t>
   </si>
   <si>
-    <t>Cercle Brugge</t>
-  </si>
-  <si>
-    <t>Club Brugge</t>
-  </si>
-  <si>
-    <t>St Truiden</t>
-  </si>
-  <si>
-    <t>Anderlecht</t>
-  </si>
-  <si>
-    <t>Beerschot VA</t>
-  </si>
-  <si>
-    <t>Gent</t>
-  </si>
-  <si>
     <t>Standard</t>
   </si>
   <si>
+    <t>Kortrijk</t>
+  </si>
+  <si>
     <t>Oud-Heverlee Leuven</t>
-  </si>
-  <si>
-    <t>St. Gilloise</t>
-  </si>
-  <si>
-    <t>Kortrijk</t>
   </si>
   <si>
     <t>Charleroi</t>
@@ -192,7 +192,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>1519.0</v>
+        <v>2045.0</v>
       </c>
     </row>
     <row r="3">
@@ -203,7 +203,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>1303.0</v>
+        <v>1712.0</v>
       </c>
     </row>
     <row r="4">
@@ -214,7 +214,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>1185.0</v>
+        <v>1686.0</v>
       </c>
     </row>
     <row r="5">
@@ -225,7 +225,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>1100.0</v>
+        <v>1582.0</v>
       </c>
     </row>
     <row r="6">
@@ -236,7 +236,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>966.0</v>
+        <v>1574.0</v>
       </c>
     </row>
     <row r="7">
@@ -247,7 +247,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>951.0</v>
+        <v>1268.0</v>
       </c>
     </row>
     <row r="8">
@@ -258,7 +258,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>914.0</v>
+        <v>1232.0</v>
       </c>
     </row>
     <row r="9">
@@ -269,7 +269,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>846.0</v>
+        <v>1227.0</v>
       </c>
     </row>
     <row r="10">
@@ -280,7 +280,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>795.0</v>
+        <v>1219.0</v>
       </c>
     </row>
     <row r="11">
@@ -291,7 +291,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>714.0</v>
+        <v>1152.0</v>
       </c>
     </row>
     <row r="12">
@@ -302,7 +302,7 @@
         <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>704.0</v>
+        <v>1073.0</v>
       </c>
     </row>
     <row r="13">
@@ -313,7 +313,7 @@
         <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>683.0</v>
+        <v>1070.0</v>
       </c>
     </row>
     <row r="14">
@@ -324,7 +324,7 @@
         <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>630.0</v>
+        <v>879.0</v>
       </c>
     </row>
     <row r="15">
@@ -335,7 +335,7 @@
         <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>596.0</v>
+        <v>873.0</v>
       </c>
     </row>
     <row r="16">
@@ -346,7 +346,7 @@
         <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>478.0</v>
+        <v>808.0</v>
       </c>
     </row>
     <row r="17">
@@ -357,7 +357,7 @@
         <v>33</v>
       </c>
       <c r="C17" t="n">
-        <v>450.0</v>
+        <v>647.0</v>
       </c>
     </row>
   </sheetData>
@@ -387,10 +387,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
-        <v>1102.0</v>
+        <v>1583.0</v>
       </c>
     </row>
     <row r="3">
@@ -398,10 +398,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>1078.0</v>
+        <v>1539.0</v>
       </c>
     </row>
     <row r="4">
@@ -409,10 +409,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>1072.0</v>
+        <v>1489.0</v>
       </c>
     </row>
     <row r="5">
@@ -420,10 +420,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" t="n">
-        <v>1000.0</v>
+        <v>1460.0</v>
       </c>
     </row>
     <row r="6">
@@ -431,10 +431,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>968.0</v>
+        <v>1434.0</v>
       </c>
     </row>
     <row r="7">
@@ -442,10 +442,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>936.0</v>
+        <v>1399.0</v>
       </c>
     </row>
     <row r="8">
@@ -453,10 +453,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>925.0</v>
+        <v>1328.0</v>
       </c>
     </row>
     <row r="9">
@@ -467,7 +467,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>919.0</v>
+        <v>1306.0</v>
       </c>
     </row>
     <row r="10">
@@ -475,10 +475,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" t="n">
-        <v>841.0</v>
+        <v>1304.0</v>
       </c>
     </row>
     <row r="11">
@@ -486,10 +486,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>788.0</v>
+        <v>1255.0</v>
       </c>
     </row>
     <row r="12">
@@ -497,10 +497,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>779.0</v>
+        <v>1241.0</v>
       </c>
     </row>
     <row r="13">
@@ -511,7 +511,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>743.0</v>
+        <v>1149.0</v>
       </c>
     </row>
     <row r="14">
@@ -522,7 +522,7 @@
         <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>729.0</v>
+        <v>1046.0</v>
       </c>
     </row>
     <row r="15">
@@ -530,10 +530,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>676.0</v>
+        <v>933.0</v>
       </c>
     </row>
     <row r="16">
@@ -541,10 +541,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C16" t="n">
-        <v>671.0</v>
+        <v>864.0</v>
       </c>
     </row>
     <row r="17">
@@ -552,10 +552,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C17" t="n">
-        <v>607.0</v>
+        <v>717.0</v>
       </c>
     </row>
   </sheetData>
@@ -591,10 +591,10 @@
         <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>2438.0</v>
+        <v>3351.0</v>
       </c>
       <c r="D2" t="n">
-        <v>81.26666666666667</v>
+        <v>111.7</v>
       </c>
     </row>
     <row r="3">
@@ -602,13 +602,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>2202.0</v>
+        <v>3225.0</v>
       </c>
       <c r="D3" t="n">
-        <v>73.4</v>
+        <v>107.5</v>
       </c>
     </row>
     <row r="4">
@@ -616,13 +616,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
-        <v>2153.0</v>
+        <v>3016.0</v>
       </c>
       <c r="D4" t="n">
-        <v>71.76666666666667</v>
+        <v>100.53333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -630,13 +630,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>1918.0</v>
+        <v>2973.0</v>
       </c>
       <c r="D5" t="n">
-        <v>63.93333333333333</v>
+        <v>99.1</v>
       </c>
     </row>
     <row r="6">
@@ -644,13 +644,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>1910.0</v>
+        <v>2721.0</v>
       </c>
       <c r="D6" t="n">
-        <v>63.666666666666664</v>
+        <v>90.7</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>1850.0</v>
+        <v>2661.0</v>
       </c>
       <c r="D7" t="n">
-        <v>61.666666666666664</v>
+        <v>88.7</v>
       </c>
     </row>
     <row r="8">
@@ -672,13 +672,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>1807.0</v>
+        <v>2596.0</v>
       </c>
       <c r="D8" t="n">
-        <v>60.233333333333334</v>
+        <v>86.53333333333333</v>
       </c>
     </row>
     <row r="9">
@@ -686,13 +686,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>1792.0</v>
+        <v>2446.0</v>
       </c>
       <c r="D9" t="n">
-        <v>59.733333333333334</v>
+        <v>81.53333333333333</v>
       </c>
     </row>
     <row r="10">
@@ -700,13 +700,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>1739.0</v>
+        <v>2393.0</v>
       </c>
       <c r="D10" t="n">
-        <v>57.96666666666667</v>
+        <v>79.76666666666667</v>
       </c>
     </row>
     <row r="11">
@@ -717,10 +717,10 @@
         <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>1538.0</v>
+        <v>2368.0</v>
       </c>
       <c r="D11" t="n">
-        <v>51.266666666666666</v>
+        <v>78.93333333333334</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>1483.0</v>
+        <v>2333.0</v>
       </c>
       <c r="D12" t="n">
-        <v>49.43333333333333</v>
+        <v>77.76666666666667</v>
       </c>
     </row>
     <row r="13">
@@ -742,13 +742,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>1450.0</v>
+        <v>2325.0</v>
       </c>
       <c r="D13" t="n">
-        <v>48.333333333333336</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="14">
@@ -756,13 +756,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" t="n">
-        <v>1403.0</v>
+        <v>2230.0</v>
       </c>
       <c r="D14" t="n">
-        <v>46.766666666666666</v>
+        <v>74.33333333333333</v>
       </c>
     </row>
     <row r="15">
@@ -773,10 +773,10 @@
         <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>1359.0</v>
+        <v>1925.0</v>
       </c>
       <c r="D15" t="n">
-        <v>45.3</v>
+        <v>64.16666666666667</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="n">
-        <v>1354.0</v>
+        <v>1790.0</v>
       </c>
       <c r="D16" t="n">
-        <v>45.13333333333333</v>
+        <v>59.666666666666664</v>
       </c>
     </row>
     <row r="17">
@@ -798,13 +798,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" t="n">
-        <v>1272.0</v>
+        <v>1741.0</v>
       </c>
       <c r="D17" t="n">
-        <v>42.4</v>
+        <v>58.03333333333333</v>
       </c>
     </row>
   </sheetData>
